--- a/docs/Cronograma Elaboração de projeto.xlsx
+++ b/docs/Cronograma Elaboração de projeto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="19440" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>1ª Semana</t>
   </si>
@@ -64,15 +64,6 @@
   </si>
   <si>
     <t>Legenda ------------</t>
-  </si>
-  <si>
-    <t>Participantes do Projeto / Cargos</t>
-  </si>
-  <si>
-    <t>Gerente</t>
-  </si>
-  <si>
-    <t>Yuri</t>
   </si>
   <si>
     <t>Criar as classes Controllers</t>
@@ -389,9 +380,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -421,65 +409,68 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,24 +818,24 @@
     </row>
     <row r="2" spans="1:24" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
-      <c r="B2" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="46"/>
+      <c r="B2" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="34"/>
       <c r="R2" s="14"/>
       <c r="S2" s="14"/>
       <c r="T2" s="14"/>
@@ -858,7 +849,7 @@
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="20"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -882,26 +873,26 @@
     <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="40" t="s">
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="42" t="s">
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="41"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="38"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
@@ -914,42 +905,42 @@
     <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="21" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="N5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="27" t="s">
+      <c r="O5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="27" t="s">
+      <c r="P5" s="26" t="s">
         <v>5</v>
       </c>
       <c r="Q5" s="9"/>
@@ -964,12 +955,12 @@
     <row r="6" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="22" t="s">
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="11"/>
@@ -994,13 +985,13 @@
     <row r="7" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48" t="s">
-        <v>19</v>
+      <c r="C7" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="29" t="s">
+        <v>16</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1024,13 +1015,13 @@
     <row r="8" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48" t="s">
-        <v>20</v>
+      <c r="C8" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="29" t="s">
+        <v>17</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="1"/>
@@ -1054,24 +1045,24 @@
     <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="42" t="s">
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="41"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="38"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
@@ -1084,42 +1075,42 @@
     <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="21" t="s">
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="29" t="s">
+      <c r="L10" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="29" t="s">
+      <c r="M10" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="N10" s="29" t="s">
+      <c r="N10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="29" t="s">
+      <c r="O10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="29" t="s">
+      <c r="P10" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Q10" s="9"/>
@@ -1134,10 +1125,10 @@
     <row r="11" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="17"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1160,10 +1151,10 @@
     <row r="12" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="17"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1186,10 +1177,10 @@
     <row r="13" spans="1:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="17"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -1216,16 +1207,16 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
@@ -1264,10 +1255,8 @@
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="13"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -1292,9 +1281,9 @@
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="49"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -1318,12 +1307,8 @@
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -1332,12 +1317,12 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="36" t="s">
+      <c r="M18" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="38"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="46"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
@@ -1350,12 +1335,8 @@
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -1365,11 +1346,11 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="33" t="s">
+      <c r="N19" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="O19" s="34"/>
-      <c r="P19" s="35"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="43"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
@@ -1382,12 +1363,8 @@
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>11</v>
-      </c>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -1397,11 +1374,11 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="33" t="s">
+      <c r="N20" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="O20" s="34"/>
-      <c r="P20" s="35"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="43"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="14"/>
       <c r="S20" s="14"/>
@@ -1414,12 +1391,8 @@
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="10"/>
@@ -1429,11 +1402,11 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="33" t="s">
+      <c r="N21" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="O21" s="34"/>
-      <c r="P21" s="35"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="43"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="14"/>
       <c r="S21" s="14"/>
@@ -1497,22 +1470,22 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="25"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="24"/>
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
@@ -1523,17 +1496,17 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
-      <c r="B25" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="49"/>
+      <c r="B25" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="30"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="49"/>
+      <c r="J25" s="30"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -1552,21 +1525,21 @@
     <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="19"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="18"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
@@ -1733,6 +1706,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="M18:P18"/>
     <mergeCell ref="B2:Q2"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C9:E9"/>
@@ -1740,20 +1724,9 @@
     <mergeCell ref="L4:P4"/>
     <mergeCell ref="G9:K9"/>
     <mergeCell ref="L9:P9"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="M18:P18"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="63" orientation="portrait" verticalDpi="300" r:id="rId1"/>
